--- a/deployment/Omaha_Cal_Info_GS05MOAS-GL524_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_GS05MOAS-GL524_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="2265" windowWidth="19260" windowHeight="11475" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="2800" yWindow="2260" windowWidth="19260" windowHeight="11480" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$104</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -993,24 +988,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="29.140625" customWidth="1"/>
-    <col min="13" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" customWidth="1"/>
+    <col min="12" max="12" width="29.1640625" customWidth="1"/>
+    <col min="13" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="42">
       <c r="A1" s="22" t="s">
         <v>29</v>
       </c>
@@ -1048,7 +1043,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>31</v>
       </c>
@@ -1065,9 +1060,11 @@
         <v>42358</v>
       </c>
       <c r="F2" s="10">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="G2" s="17"/>
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="G2" s="17">
+        <v>42471</v>
+      </c>
       <c r="H2" s="19" t="s">
         <v>23</v>
       </c>
@@ -1084,11 +1081,11 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
@@ -1107,24 +1104,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -1179,7 +1176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -1208,7 +1205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -1237,7 +1234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1266,7 +1263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="5" customFormat="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="15"/>
@@ -1275,7 +1272,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="5" customFormat="1">
       <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
@@ -1299,7 +1296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="5" customFormat="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="15"/>
@@ -1308,7 +1305,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="5" customFormat="1">
       <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
@@ -1332,7 +1329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="5" customFormat="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="15"/>
@@ -1341,7 +1338,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="5" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -1365,7 +1362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="5" customFormat="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
